--- a/docentes/Medina Tolentino Francisco Estadisticos 2020.xlsx
+++ b/docentes/Medina Tolentino Francisco Estadisticos 2020.xlsx
@@ -859,7 +859,7 @@
         <v>10</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -882,7 +882,7 @@
         <v>11</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -905,7 +905,7 @@
         <v>11</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
